--- a/Results/Bayes_global_summary.xlsx
+++ b/Results/Bayes_global_summary.xlsx
@@ -416,10 +416,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.414</v>
+        <v>-0.336</v>
       </c>
       <c r="C2">
-        <v>0.9399999999999999</v>
+        <v>0.835</v>
       </c>
       <c r="D2">
         <v>0.002</v>
@@ -428,19 +428,19 @@
         <v>0.003</v>
       </c>
       <c r="F2">
-        <v>-1.438</v>
+        <v>-1.981</v>
       </c>
       <c r="G2">
-        <v>-0.207</v>
+        <v>-0.887</v>
       </c>
       <c r="H2">
-        <v>0.411</v>
+        <v>-0.336</v>
       </c>
       <c r="I2">
-        <v>1.034</v>
+        <v>0.214</v>
       </c>
       <c r="J2">
-        <v>2.269</v>
+        <v>1.313</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.596</v>
+        <v>-0.407</v>
       </c>
       <c r="C3">
-        <v>1.002</v>
+        <v>0.974</v>
       </c>
       <c r="D3">
         <v>0.002</v>
       </c>
       <c r="E3">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F3">
-        <v>-1.378</v>
+        <v>-2.332</v>
       </c>
       <c r="G3">
-        <v>-0.067</v>
+        <v>-1.051</v>
       </c>
       <c r="H3">
-        <v>0.593</v>
+        <v>-0.407</v>
       </c>
       <c r="I3">
-        <v>1.258</v>
+        <v>0.237</v>
       </c>
       <c r="J3">
-        <v>2.581</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.827</v>
+        <v>0.012</v>
       </c>
       <c r="C4">
-        <v>1.006</v>
+        <v>0.875</v>
       </c>
       <c r="D4">
         <v>0.002</v>
@@ -496,19 +496,19 @@
         <v>0.003</v>
       </c>
       <c r="F4">
-        <v>-1.146</v>
+        <v>-1.71</v>
       </c>
       <c r="G4">
-        <v>0.162</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="H4">
-        <v>0.825</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
-        <v>1.492</v>
+        <v>0.587</v>
       </c>
       <c r="J4">
-        <v>2.821</v>
+        <v>1.741</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.35</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="C5">
-        <v>0.929</v>
+        <v>0.819</v>
       </c>
       <c r="D5">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E5">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F5">
-        <v>-2.177</v>
+        <v>-2.433</v>
       </c>
       <c r="G5">
-        <v>-0.965</v>
+        <v>-1.358</v>
       </c>
       <c r="H5">
-        <v>-0.354</v>
+        <v>-0.8159999999999999</v>
       </c>
       <c r="I5">
-        <v>0.264</v>
+        <v>-0.277</v>
       </c>
       <c r="J5">
-        <v>1.492</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.356</v>
+        <v>0.094</v>
       </c>
       <c r="C6">
-        <v>0.479</v>
+        <v>0.292</v>
       </c>
       <c r="D6">
         <v>0.001</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.437</v>
+        <v>0.115</v>
       </c>
       <c r="C7">
-        <v>0.496</v>
+        <v>0.319</v>
       </c>
       <c r="D7">
         <v>0.001</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.53</v>
+        <v>0.194</v>
       </c>
       <c r="C8">
-        <v>0.499</v>
+        <v>0.396</v>
       </c>
       <c r="D8">
         <v>0.001</v>
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -654,16 +654,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.115</v>
+        <v>0.028</v>
       </c>
       <c r="C9">
-        <v>0.319</v>
+        <v>0.166</v>
       </c>
       <c r="D9">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.525</v>
+        <v>0.145</v>
       </c>
       <c r="C10">
-        <v>0.499</v>
+        <v>0.352</v>
       </c>
       <c r="D10">
         <v>0.001</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -722,16 +722,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.63</v>
+        <v>0.057</v>
       </c>
       <c r="C11">
-        <v>0.483</v>
+        <v>0.232</v>
       </c>
       <c r="D11">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.982</v>
+        <v>0.061</v>
       </c>
       <c r="C12">
-        <v>0.134</v>
+        <v>0.239</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -790,13 +790,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.278</v>
+        <v>0.074</v>
       </c>
       <c r="C13">
-        <v>0.448</v>
+        <v>0.262</v>
       </c>
       <c r="D13">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0.001</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.475</v>
+        <v>0.48</v>
       </c>
       <c r="C14">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>0.001</v>
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.381</v>
+        <v>0.321</v>
       </c>
       <c r="C15">
-        <v>0.486</v>
+        <v>0.467</v>
       </c>
       <c r="D15">
         <v>0.001</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.399</v>
+        <v>0.526</v>
       </c>
       <c r="C16">
-        <v>0.49</v>
+        <v>0.499</v>
       </c>
       <c r="D16">
         <v>0.001</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.5570000000000001</v>
+        <v>0.413</v>
       </c>
       <c r="C17">
-        <v>0.497</v>
+        <v>0.492</v>
       </c>
       <c r="D17">
         <v>0.001</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.369</v>
+        <v>0.321</v>
       </c>
       <c r="C18">
-        <v>0.482</v>
+        <v>0.467</v>
       </c>
       <c r="D18">
         <v>0.001</v>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.609</v>
+        <v>0.253</v>
       </c>
       <c r="C19">
-        <v>0.488</v>
+        <v>0.435</v>
       </c>
       <c r="D19">
         <v>0.001</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.91</v>
+        <v>0.373</v>
       </c>
       <c r="C20">
-        <v>0.286</v>
+        <v>0.484</v>
       </c>
       <c r="D20">
         <v>0.001</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.155</v>
+        <v>0.291</v>
       </c>
       <c r="C21">
-        <v>0.362</v>
+        <v>0.454</v>
       </c>
       <c r="D21">
         <v>0.001</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1096,16 +1096,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.319</v>
+        <v>0.648</v>
       </c>
       <c r="C22">
-        <v>0.466</v>
+        <v>0.478</v>
       </c>
       <c r="D22">
         <v>0.001</v>
       </c>
       <c r="E22">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.509</v>
+        <v>0.357</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.479</v>
       </c>
       <c r="D23">
         <v>0.001</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.344</v>
+        <v>0.415</v>
       </c>
       <c r="C24">
-        <v>0.475</v>
+        <v>0.493</v>
       </c>
       <c r="D24">
         <v>0.001</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.242</v>
+        <v>0.297</v>
       </c>
       <c r="C25">
-        <v>0.428</v>
+        <v>0.457</v>
       </c>
       <c r="D25">
         <v>0.001</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.194</v>
+        <v>0.429</v>
       </c>
       <c r="C26">
-        <v>0.395</v>
+        <v>0.495</v>
       </c>
       <c r="D26">
         <v>0.001</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.166</v>
+        <v>0.403</v>
       </c>
       <c r="C27">
-        <v>0.372</v>
+        <v>0.49</v>
       </c>
       <c r="D27">
         <v>0.001</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.294</v>
+        <v>0.517</v>
       </c>
       <c r="C28">
-        <v>0.456</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
         <v>0.001</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.264</v>
+        <v>0.425</v>
       </c>
       <c r="C29">
-        <v>0.441</v>
+        <v>0.494</v>
       </c>
       <c r="D29">
         <v>0.001</v>
       </c>
       <c r="E29">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1368,16 +1368,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.577</v>
+        <v>0.011</v>
       </c>
       <c r="C30">
-        <v>0.494</v>
+        <v>0.104</v>
       </c>
       <c r="D30">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.476</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C31">
-        <v>0.499</v>
+        <v>0.092</v>
       </c>
       <c r="D31">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.539</v>
+        <v>0.049</v>
       </c>
       <c r="C32">
-        <v>0.498</v>
+        <v>0.216</v>
       </c>
       <c r="D32">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0.001</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1470,31 +1470,31 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.8070000000000001</v>
+        <v>0.007</v>
       </c>
       <c r="C33">
-        <v>0.395</v>
+        <v>0.082</v>
       </c>
       <c r="D33">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.83</v>
+        <v>0.58</v>
       </c>
       <c r="C34">
-        <v>0.376</v>
+        <v>0.494</v>
       </c>
       <c r="D34">
         <v>0.001</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.977</v>
+        <v>0.66</v>
       </c>
       <c r="C35">
-        <v>0.149</v>
+        <v>0.474</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1572,25 +1572,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.971</v>
+        <v>0.453</v>
       </c>
       <c r="C36">
-        <v>0.168</v>
+        <v>0.498</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.616</v>
+        <v>0.302</v>
       </c>
       <c r="C37">
-        <v>0.486</v>
+        <v>0.459</v>
       </c>
       <c r="D37">
         <v>0.001</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.461</v>
+        <v>0.029</v>
       </c>
       <c r="C38">
-        <v>0.498</v>
+        <v>0.168</v>
       </c>
       <c r="D38">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.547</v>
+        <v>0.868</v>
       </c>
       <c r="C39">
-        <v>0.498</v>
+        <v>0.339</v>
       </c>
       <c r="D39">
         <v>0.001</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.378</v>
+        <v>0.257</v>
       </c>
       <c r="C40">
-        <v>0.485</v>
+        <v>0.437</v>
       </c>
       <c r="D40">
         <v>0.001</v>
@@ -1742,16 +1742,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.147</v>
+        <v>0.017</v>
       </c>
       <c r="C41">
-        <v>0.354</v>
+        <v>0.131</v>
       </c>
       <c r="D41">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.524</v>
+        <v>0.267</v>
       </c>
       <c r="C42">
-        <v>0.499</v>
+        <v>0.442</v>
       </c>
       <c r="D42">
         <v>0.001</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.266</v>
+        <v>0.268</v>
       </c>
       <c r="C43">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="D43">
         <v>0.001</v>
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.261</v>
+        <v>0.36</v>
       </c>
       <c r="C44">
-        <v>0.439</v>
+        <v>0.48</v>
       </c>
       <c r="D44">
         <v>0.001</v>
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.235</v>
+        <v>0.207</v>
       </c>
       <c r="C45">
-        <v>0.424</v>
+        <v>0.405</v>
       </c>
       <c r="D45">
         <v>0.001</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.105</v>
+        <v>0.542</v>
       </c>
       <c r="C46">
-        <v>0.306</v>
+        <v>0.498</v>
       </c>
       <c r="D46">
         <v>0.001</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -1946,16 +1946,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.481</v>
+        <v>0.357</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>0.479</v>
       </c>
       <c r="D47">
         <v>0.001</v>
       </c>
       <c r="E47">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.307</v>
+        <v>0.536</v>
       </c>
       <c r="C48">
-        <v>0.461</v>
+        <v>0.499</v>
       </c>
       <c r="D48">
         <v>0.001</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.002</v>
+        <v>0.388</v>
       </c>
       <c r="C49">
-        <v>0.049</v>
+        <v>0.487</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.281</v>
+        <v>0.493</v>
       </c>
       <c r="C50">
-        <v>0.449</v>
+        <v>0.5</v>
       </c>
       <c r="D50">
         <v>0.001</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.382</v>
+        <v>0.486</v>
       </c>
       <c r="C51">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="D51">
         <v>0.001</v>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.248</v>
+        <v>0.536</v>
       </c>
       <c r="C52">
-        <v>0.432</v>
+        <v>0.499</v>
       </c>
       <c r="D52">
         <v>0.001</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.249</v>
+        <v>0.437</v>
       </c>
       <c r="C53">
-        <v>0.433</v>
+        <v>0.496</v>
       </c>
       <c r="D53">
         <v>0.001</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.356</v>
+        <v>0.284</v>
       </c>
       <c r="C54">
-        <v>0.479</v>
+        <v>0.451</v>
       </c>
       <c r="D54">
         <v>0.001</v>
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.293</v>
+        <v>0.253</v>
       </c>
       <c r="C55">
-        <v>0.455</v>
+        <v>0.435</v>
       </c>
       <c r="D55">
         <v>0.001</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.365</v>
+        <v>0.277</v>
       </c>
       <c r="C56">
-        <v>0.482</v>
+        <v>0.447</v>
       </c>
       <c r="D56">
         <v>0.001</v>
@@ -2286,10 +2286,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.283</v>
+        <v>0.233</v>
       </c>
       <c r="C57">
-        <v>0.451</v>
+        <v>0.423</v>
       </c>
       <c r="D57">
         <v>0.001</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.502</v>
+        <v>0.58</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="D58">
         <v>0.001</v>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.574</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C59">
-        <v>0.495</v>
+        <v>0.497</v>
       </c>
       <c r="D59">
         <v>0.001</v>
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.322</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C60">
-        <v>0.467</v>
+        <v>0.496</v>
       </c>
       <c r="D60">
         <v>0.001</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.345</v>
+        <v>0.477</v>
       </c>
       <c r="C61">
-        <v>0.475</v>
+        <v>0.499</v>
       </c>
       <c r="D61">
         <v>0.001</v>
       </c>
       <c r="E61">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.344</v>
+        <v>0.547</v>
       </c>
       <c r="C62">
-        <v>0.475</v>
+        <v>0.498</v>
       </c>
       <c r="D62">
         <v>0.001</v>
       </c>
       <c r="E62">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -2490,10 +2490,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.374</v>
+        <v>0.221</v>
       </c>
       <c r="C63">
-        <v>0.484</v>
+        <v>0.415</v>
       </c>
       <c r="D63">
         <v>0.001</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.348</v>
+        <v>0.681</v>
       </c>
       <c r="C64">
-        <v>0.476</v>
+        <v>0.466</v>
       </c>
       <c r="D64">
         <v>0.001</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2558,10 +2558,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.386</v>
+        <v>0.553</v>
       </c>
       <c r="C65">
-        <v>0.487</v>
+        <v>0.497</v>
       </c>
       <c r="D65">
         <v>0.001</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.267</v>
+        <v>0.39</v>
       </c>
       <c r="C66">
-        <v>0.442</v>
+        <v>0.488</v>
       </c>
       <c r="D66">
         <v>0.001</v>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.463</v>
+        <v>0.327</v>
       </c>
       <c r="C67">
-        <v>0.499</v>
+        <v>0.469</v>
       </c>
       <c r="D67">
         <v>0.001</v>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.12</v>
+        <v>0.412</v>
       </c>
       <c r="C68">
-        <v>0.325</v>
+        <v>0.492</v>
       </c>
       <c r="D68">
         <v>0.001</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.261</v>
+        <v>0.287</v>
       </c>
       <c r="C69">
-        <v>0.439</v>
+        <v>0.453</v>
       </c>
       <c r="D69">
         <v>0.001</v>
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.524</v>
+        <v>0.315</v>
       </c>
       <c r="C70">
-        <v>0.499</v>
+        <v>0.465</v>
       </c>
       <c r="D70">
         <v>0.001</v>
       </c>
       <c r="E70">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.472</v>
+        <v>0.121</v>
       </c>
       <c r="C71">
-        <v>0.499</v>
+        <v>0.326</v>
       </c>
       <c r="D71">
         <v>0.001</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.44</v>
+        <v>0.457</v>
       </c>
       <c r="C72">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
       <c r="D72">
         <v>0.001</v>
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.466</v>
+        <v>0.162</v>
       </c>
       <c r="C73">
-        <v>0.499</v>
+        <v>0.368</v>
       </c>
       <c r="D73">
         <v>0.001</v>
       </c>
       <c r="E73">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -2864,31 +2864,31 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.827</v>
+        <v>0.005</v>
       </c>
       <c r="C74">
-        <v>0.378</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D74">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2898,10 +2898,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.235</v>
+        <v>0.131</v>
       </c>
       <c r="C75">
-        <v>0.424</v>
+        <v>0.337</v>
       </c>
       <c r="D75">
         <v>0.001</v>
@@ -2932,16 +2932,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.359</v>
+        <v>0.03</v>
       </c>
       <c r="C76">
-        <v>0.48</v>
+        <v>0.171</v>
       </c>
       <c r="D76">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -2966,16 +2966,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.387</v>
+        <v>0.013</v>
       </c>
       <c r="D77">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3000,10 +3000,10 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.525</v>
+        <v>0.094</v>
       </c>
       <c r="C78">
-        <v>0.499</v>
+        <v>0.291</v>
       </c>
       <c r="D78">
         <v>0.001</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3034,16 +3034,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.386</v>
+        <v>0.076</v>
       </c>
       <c r="C79">
-        <v>0.487</v>
+        <v>0.265</v>
       </c>
       <c r="D79">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3068,25 +3068,25 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.8139999999999999</v>
+        <v>0.471</v>
       </c>
       <c r="C80">
-        <v>0.389</v>
+        <v>0.499</v>
       </c>
       <c r="D80">
         <v>0.001</v>
       </c>
       <c r="E80">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -3102,16 +3102,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.479</v>
+        <v>0.03</v>
       </c>
       <c r="C81">
-        <v>0.5</v>
+        <v>0.171</v>
       </c>
       <c r="D81">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.608</v>
+        <v>0.105</v>
       </c>
       <c r="C82">
-        <v>0.488</v>
+        <v>0.307</v>
       </c>
       <c r="D82">
         <v>0.001</v>
@@ -3154,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.722</v>
+        <v>0.332</v>
       </c>
       <c r="C83">
-        <v>0.448</v>
+        <v>0.471</v>
       </c>
       <c r="D83">
         <v>0.001</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3204,10 +3204,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.608</v>
+        <v>0.325</v>
       </c>
       <c r="C84">
-        <v>0.488</v>
+        <v>0.468</v>
       </c>
       <c r="D84">
         <v>0.001</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3238,10 +3238,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.456</v>
+        <v>0.139</v>
       </c>
       <c r="C85">
-        <v>0.498</v>
+        <v>0.346</v>
       </c>
       <c r="D85">
         <v>0.001</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.163</v>
+        <v>0.489</v>
       </c>
       <c r="C86">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D86">
         <v>0.001</v>
       </c>
       <c r="E86">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.162</v>
+        <v>0.263</v>
       </c>
       <c r="C87">
-        <v>0.368</v>
+        <v>0.44</v>
       </c>
       <c r="D87">
         <v>0.001</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3340,16 +3340,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.5679999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="C88">
-        <v>0.495</v>
+        <v>0.499</v>
       </c>
       <c r="D88">
         <v>0.001</v>
       </c>
       <c r="E88">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.157</v>
+        <v>0.471</v>
       </c>
       <c r="C89">
-        <v>0.364</v>
+        <v>0.499</v>
       </c>
       <c r="D89">
         <v>0.001</v>
       </c>
       <c r="E89">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>1</v>
